--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Eng.xlsx
@@ -546,10 +546,10 @@
         <v>0.163767</v>
       </c>
       <c r="I2">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J2">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N2">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O2">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P2">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q2">
-        <v>11.132558694078</v>
+        <v>9.083263305580333</v>
       </c>
       <c r="R2">
-        <v>100.193028246702</v>
+        <v>81.749369750223</v>
       </c>
       <c r="S2">
-        <v>0.3188229625147326</v>
+        <v>0.5709269005433073</v>
       </c>
       <c r="T2">
-        <v>0.4008440500218513</v>
+        <v>0.6116683937366765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.163767</v>
       </c>
       <c r="I3">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J3">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P3">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q3">
         <v>2.662332551555</v>
@@ -638,10 +638,10 @@
         <v>23.960992963995</v>
       </c>
       <c r="S3">
-        <v>0.07624597135406982</v>
+        <v>0.1673404393045653</v>
       </c>
       <c r="T3">
-        <v>0.09586117547603905</v>
+        <v>0.1792818968929439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.163767</v>
       </c>
       <c r="I4">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J4">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N4">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O4">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P4">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q4">
-        <v>0.394443136821</v>
+        <v>0.404114888307</v>
       </c>
       <c r="R4">
-        <v>3.549988231389</v>
+        <v>3.637033994763</v>
       </c>
       <c r="S4">
-        <v>0.01129637245854112</v>
+        <v>0.02540056947405419</v>
       </c>
       <c r="T4">
-        <v>0.01420250176186002</v>
+        <v>0.02721316076612693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.163767</v>
       </c>
       <c r="I5">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J5">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N5">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O5">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P5">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q5">
-        <v>1.1941057976585</v>
+        <v>0.2794366965855</v>
       </c>
       <c r="R5">
-        <v>7.164634785951</v>
+        <v>1.676620179513</v>
       </c>
       <c r="S5">
-        <v>0.03419774001892483</v>
+        <v>0.01756394389465815</v>
       </c>
       <c r="T5">
-        <v>0.02866368324008183</v>
+        <v>0.01254487435490495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.163767</v>
       </c>
       <c r="I6">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J6">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N6">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O6">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P6">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q6">
-        <v>0.2730371826246666</v>
+        <v>0.6216802030346668</v>
       </c>
       <c r="R6">
-        <v>2.457334643622</v>
+        <v>5.595121827312001</v>
       </c>
       <c r="S6">
-        <v>0.007819453355981772</v>
+        <v>0.03907559865953258</v>
       </c>
       <c r="T6">
-        <v>0.009831102902520244</v>
+        <v>0.0418640436168453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H7">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I7">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J7">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N7">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O7">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P7">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q7">
-        <v>13.695704455065</v>
+        <v>1.989735342434</v>
       </c>
       <c r="R7">
-        <v>82.17422673039002</v>
+        <v>11.938412054604</v>
       </c>
       <c r="S7">
-        <v>0.3922283446313938</v>
+        <v>0.1250644612778558</v>
       </c>
       <c r="T7">
-        <v>0.3287559067375292</v>
+        <v>0.08932606266589943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H8">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I8">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J8">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>146.311485</v>
       </c>
       <c r="O8">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P8">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q8">
-        <v>3.275304517962501</v>
+        <v>0.58319757921</v>
       </c>
       <c r="R8">
-        <v>19.651827107775</v>
+        <v>3.49918547526</v>
       </c>
       <c r="S8">
-        <v>0.09380074412813837</v>
+        <v>0.03665678017923011</v>
       </c>
       <c r="T8">
-        <v>0.07862141813713498</v>
+        <v>0.0261817450774066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H9">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I9">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J9">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N9">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O9">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P9">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q9">
-        <v>0.4852592090175001</v>
+        <v>0.088523435754</v>
       </c>
       <c r="R9">
-        <v>2.911555254105</v>
+        <v>0.531140614524</v>
       </c>
       <c r="S9">
-        <v>0.01389723448651698</v>
+        <v>0.00556412481948268</v>
       </c>
       <c r="T9">
-        <v>0.01164831146778184</v>
+        <v>0.003974121482854858</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H10">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I10">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J10">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N10">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O10">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P10">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q10">
-        <v>1.46903515554875</v>
+        <v>0.06121203938100001</v>
       </c>
       <c r="R10">
-        <v>5.876140622195001</v>
+        <v>0.244848157524</v>
       </c>
       <c r="S10">
-        <v>0.0420713829768075</v>
+        <v>0.003847471854995003</v>
       </c>
       <c r="T10">
-        <v>0.02350878146630024</v>
+        <v>0.001832012646454455</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H11">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I11">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J11">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N11">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O11">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P11">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q11">
-        <v>0.3359009066316667</v>
+        <v>0.136182232096</v>
       </c>
       <c r="R11">
-        <v>2.01540543979</v>
+        <v>0.8170933925760001</v>
       </c>
       <c r="S11">
-        <v>0.009619794074893221</v>
+        <v>0.008559709992318792</v>
       </c>
       <c r="T11">
-        <v>0.008063068788901347</v>
+        <v>0.006113688759887353</v>
       </c>
     </row>
   </sheetData>
